--- a/noah lab/TimeSeries/0905/data/A3_2.xlsx
+++ b/noah lab/TimeSeries/0905/data/A3_2.xlsx
@@ -24,10 +24,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -35,6 +35,35 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -53,17 +82,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,10 +98,56 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,67 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,13 +177,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +191,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,31 +293,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,19 +323,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,61 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,37 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,30 +382,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -427,8 +403,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,22 +435,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,10 +490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,133 +502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -951,15 +951,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AH174"/>
+  <dimension ref="A1:AW174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:49">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1061,6 +1061,51 @@
       </c>
       <c r="AH1">
         <v>201608</v>
+      </c>
+      <c r="AI1">
+        <v>201609</v>
+      </c>
+      <c r="AJ1">
+        <v>201610</v>
+      </c>
+      <c r="AK1">
+        <v>201611</v>
+      </c>
+      <c r="AL1">
+        <v>201612</v>
+      </c>
+      <c r="AM1">
+        <v>201701</v>
+      </c>
+      <c r="AN1">
+        <v>201702</v>
+      </c>
+      <c r="AO1">
+        <v>201703</v>
+      </c>
+      <c r="AP1">
+        <v>201704</v>
+      </c>
+      <c r="AQ1">
+        <v>201705</v>
+      </c>
+      <c r="AR1">
+        <v>201706</v>
+      </c>
+      <c r="AS1">
+        <v>201707</v>
+      </c>
+      <c r="AT1">
+        <v>201708</v>
+      </c>
+      <c r="AU1">
+        <v>201709</v>
+      </c>
+      <c r="AV1">
+        <v>201710</v>
+      </c>
+      <c r="AW1">
+        <v>201711</v>
       </c>
     </row>
     <row r="2" spans="1:34">

--- a/noah lab/TimeSeries/0905/data/A3_2.xlsx
+++ b/noah lab/TimeSeries/0905/data/A3_2.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -24,10 +24,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -39,29 +39,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,14 +54,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -97,17 +67,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,7 +98,45 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,13 +150,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -152,23 +167,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,7 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,13 +191,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +227,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,19 +281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,19 +293,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,13 +335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,85 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,6 +382,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,11 +426,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,39 +457,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -482,6 +471,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -490,10 +490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,133 +502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -953,8 +953,8 @@
   <sheetPr/>
   <dimension ref="A1:AW174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AJ174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1108,7 +1108,7 @@
         <v>201711</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:36">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1211,8 +1211,14 @@
       <c r="AH2">
         <v>32.4488088362066</v>
       </c>
+      <c r="AI2">
+        <v>30.9933245789658</v>
+      </c>
+      <c r="AJ2">
+        <v>36.4761722480401</v>
+      </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1315,8 +1321,14 @@
       <c r="AH3">
         <v>0</v>
       </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>7.71251507103443e-18</v>
+      </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:36">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1419,8 +1431,14 @@
       <c r="AH4">
         <v>2.50134638368581</v>
       </c>
+      <c r="AI4">
+        <v>2.28514120678684</v>
+      </c>
+      <c r="AJ4">
+        <v>1.67919959784432</v>
+      </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:36">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1523,8 +1541,14 @@
       <c r="AH5">
         <v>0.0789114970703824</v>
       </c>
+      <c r="AI5">
+        <v>-0.0713712562869844</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.0378363637552046</v>
+      </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:36">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1627,8 +1651,14 @@
       <c r="AH6">
         <v>0.362040969268</v>
       </c>
+      <c r="AI6">
+        <v>0.317188321968</v>
+      </c>
+      <c r="AJ6">
+        <v>0.285592840968</v>
+      </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:36">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1731,8 +1761,14 @@
       <c r="AH7">
         <v>0</v>
       </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0.0063062914794</v>
+      </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:36">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1835,8 +1871,14 @@
       <c r="AH8">
         <v>1.793089062</v>
       </c>
+      <c r="AI8">
+        <v>1.465387052</v>
+      </c>
+      <c r="AJ8">
+        <v>1.2259205301</v>
+      </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:36">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1939,8 +1981,14 @@
       <c r="AH9">
         <v>0.0002456633</v>
       </c>
+      <c r="AI9">
+        <v>0.000245663300000001</v>
+      </c>
+      <c r="AJ9">
+        <v>0.000245663299999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:36">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2043,8 +2091,14 @@
       <c r="AH10">
         <v>10.7898666482167</v>
       </c>
+      <c r="AI10">
+        <v>8.53421641342109</v>
+      </c>
+      <c r="AJ10">
+        <v>8.68042801599638</v>
+      </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:36">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2147,8 +2201,14 @@
       <c r="AH11">
         <v>0.0816017007595711</v>
       </c>
+      <c r="AI11">
+        <v>0.0785606812592471</v>
+      </c>
+      <c r="AJ11">
+        <v>0.0674549781965473</v>
+      </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:36">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2251,8 +2311,14 @@
       <c r="AH12">
         <v>0</v>
       </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:36">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2355,8 +2421,14 @@
       <c r="AH13">
         <v>1.01333077336727</v>
       </c>
+      <c r="AI13">
+        <v>0.680458949478314</v>
+      </c>
+      <c r="AJ13">
+        <v>0.638067657395214</v>
+      </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:36">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2459,8 +2531,14 @@
       <c r="AH14">
         <v>0.0107861911</v>
       </c>
+      <c r="AI14">
+        <v>0.010786191</v>
+      </c>
+      <c r="AJ14">
+        <v>0.010786191</v>
+      </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:36">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2563,8 +2641,14 @@
       <c r="AH15">
         <v>0.0738127768528151</v>
       </c>
+      <c r="AI15">
+        <v>0.073338912776696</v>
+      </c>
+      <c r="AJ15">
+        <v>0.0751966392546329</v>
+      </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:36">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2667,8 +2751,14 @@
       <c r="AH16">
         <v>0.000106807099999884</v>
       </c>
+      <c r="AI16">
+        <v>0.0001068071</v>
+      </c>
+      <c r="AJ16">
+        <v>0.000106807100000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:36">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2771,8 +2861,14 @@
       <c r="AH17">
         <v>0.00133581695536462</v>
       </c>
+      <c r="AI17">
+        <v>0.000924568255650153</v>
+      </c>
+      <c r="AJ17">
+        <v>0.000923062311850205</v>
+      </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2875,8 +2971,11 @@
       <c r="AH18">
         <v>0</v>
       </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:36">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2979,8 +3078,14 @@
       <c r="AH19">
         <v>0</v>
       </c>
+      <c r="AI19">
+        <v>4.65661287307739e-18</v>
+      </c>
+      <c r="AJ19">
+        <v>1.67638070092124e-18</v>
+      </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:36">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3083,8 +3188,14 @@
       <c r="AH20">
         <v>0.0001385712</v>
       </c>
+      <c r="AI20">
+        <v>0.0001385647</v>
+      </c>
+      <c r="AJ20">
+        <v>0.000138564699999996</v>
+      </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:36">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3187,8 +3298,14 @@
       <c r="AH21">
         <v>0</v>
       </c>
+      <c r="AI21">
+        <v>1.16415321826935e-18</v>
+      </c>
+      <c r="AJ21">
+        <v>2.91038304567337e-18</v>
+      </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:36">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3291,8 +3408,14 @@
       <c r="AH22">
         <v>0.108513223354715</v>
       </c>
+      <c r="AI22">
+        <v>0.104583619536332</v>
+      </c>
+      <c r="AJ22">
+        <v>0.111115720681848</v>
+      </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:36">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3395,8 +3518,14 @@
       <c r="AH23">
         <v>0.00508929685940768</v>
       </c>
+      <c r="AI23">
+        <v>0.00507218522204717</v>
+      </c>
+      <c r="AJ23">
+        <v>0.00515389670035625</v>
+      </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:36">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3499,8 +3628,14 @@
       <c r="AH24">
         <v>1.30967237551822e-18</v>
       </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0.00113596990661877</v>
+      </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:36">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3603,8 +3738,14 @@
       <c r="AH25">
         <v>-9.82254277914763e-19</v>
       </c>
+      <c r="AI25">
+        <v>-1.00044417195022e-18</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:36">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3707,8 +3848,14 @@
       <c r="AH26">
         <v>0.077254839600001</v>
       </c>
+      <c r="AI26">
+        <v>0.0660070758</v>
+      </c>
+      <c r="AJ26">
+        <v>0.0372239395</v>
+      </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:36">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3811,8 +3958,14 @@
       <c r="AH27">
         <v>6.4922593675</v>
       </c>
+      <c r="AI27">
+        <v>6.9901879447</v>
+      </c>
+      <c r="AJ27">
+        <v>8.2012389452</v>
+      </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:36">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3915,8 +4068,14 @@
       <c r="AH28">
         <v>0.000214907913204878</v>
       </c>
+      <c r="AI28">
+        <v>-0.000325783913274857</v>
+      </c>
+      <c r="AJ28">
+        <v>-0.000331030040141493</v>
+      </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:36">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4019,8 +4178,14 @@
       <c r="AH29">
         <v>6.91385392629009</v>
       </c>
+      <c r="AI29">
+        <v>6.93321168456405</v>
+      </c>
+      <c r="AJ29">
+        <v>6.8453308512147</v>
+      </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:36">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4123,8 +4288,14 @@
       <c r="AH30">
         <v>0.389134480680482</v>
       </c>
+      <c r="AI30">
+        <v>0.455504563037583</v>
+      </c>
+      <c r="AJ30">
+        <v>0.481522338949462</v>
+      </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:36">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4227,8 +4398,14 @@
       <c r="AH31">
         <v>6.08752758184446</v>
       </c>
+      <c r="AI31">
+        <v>6.05756686989959</v>
+      </c>
+      <c r="AJ31">
+        <v>6.00614758703667</v>
+      </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:36">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4331,8 +4508,14 @@
       <c r="AH32">
         <v>0.0236070622473634</v>
       </c>
+      <c r="AI32">
+        <v>0.0176351264862732</v>
+      </c>
+      <c r="AJ32">
+        <v>0.0218648966690905</v>
+      </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:36">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4435,8 +4618,14 @@
       <c r="AH33">
         <v>14.8292382630709</v>
       </c>
+      <c r="AI33">
+        <v>14.9149554340257</v>
+      </c>
+      <c r="AJ33">
+        <v>13.891639267794</v>
+      </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:36">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4539,8 +4728,14 @@
       <c r="AH34">
         <v>1.5073699764697</v>
       </c>
+      <c r="AI34">
+        <v>1.45380093016204</v>
+      </c>
+      <c r="AJ34">
+        <v>1.4592762146457</v>
+      </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:36">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4643,8 +4838,14 @@
       <c r="AH35">
         <v>9.21715971503986</v>
       </c>
+      <c r="AI35">
+        <v>9.15749290594746</v>
+      </c>
+      <c r="AJ35">
+        <v>9.46653773279273</v>
+      </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:36">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4747,8 +4948,14 @@
       <c r="AH36">
         <v>1.78284217282559</v>
       </c>
+      <c r="AI36">
+        <v>1.87920805950724</v>
+      </c>
+      <c r="AJ36">
+        <v>1.83402634870736</v>
+      </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:36">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4851,8 +5058,14 @@
       <c r="AH37">
         <v>10.5664509169385</v>
       </c>
+      <c r="AI37">
+        <v>11.48249463454</v>
+      </c>
+      <c r="AJ37">
+        <v>11.8129813351793</v>
+      </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:36">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4955,8 +5168,14 @@
       <c r="AH38">
         <v>0.0312461377086221</v>
       </c>
+      <c r="AI38">
+        <v>0.0273411235713899</v>
+      </c>
+      <c r="AJ38">
+        <v>0.0316862935217939</v>
+      </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:36">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5059,8 +5278,14 @@
       <c r="AH39">
         <v>0.337904853778153</v>
       </c>
+      <c r="AI39">
+        <v>0.335972081822403</v>
+      </c>
+      <c r="AJ39">
+        <v>0.326952051935549</v>
+      </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:36">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5163,8 +5388,14 @@
       <c r="AH40">
         <v>0.162465370877424</v>
       </c>
+      <c r="AI40">
+        <v>0.100274631453079</v>
+      </c>
+      <c r="AJ40">
+        <v>0.109254584374497</v>
+      </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:36">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5267,8 +5498,14 @@
       <c r="AH41">
         <v>1.63896218562026</v>
       </c>
+      <c r="AI41">
+        <v>2.03973700157079</v>
+      </c>
+      <c r="AJ41">
+        <v>1.98126452558987</v>
+      </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:36">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5371,8 +5608,14 @@
       <c r="AH42">
         <v>0.127490600158493</v>
       </c>
+      <c r="AI42">
+        <v>0.137486036259317</v>
+      </c>
+      <c r="AJ42">
+        <v>0.143560223103851</v>
+      </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:36">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5475,8 +5718,14 @@
       <c r="AH43">
         <v>0</v>
       </c>
+      <c r="AI43">
+        <v>4.55114298802073e-12</v>
+      </c>
+      <c r="AJ43">
+        <v>4.57615100458497e-12</v>
+      </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:36">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5579,8 +5828,14 @@
       <c r="AH44">
         <v>0.808374848377801</v>
       </c>
+      <c r="AI44">
+        <v>0.864836227786033</v>
+      </c>
+      <c r="AJ44">
+        <v>0.929047390941584</v>
+      </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:36">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5683,8 +5938,14 @@
       <c r="AH45">
         <v>0.00365576384883611</v>
       </c>
+      <c r="AI45">
+        <v>0.00268427340059614</v>
+      </c>
+      <c r="AJ45">
+        <v>0.00272357963320616</v>
+      </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:36">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5787,8 +6048,14 @@
       <c r="AH46">
         <v>0.677817001398305</v>
       </c>
+      <c r="AI46">
+        <v>0.816295935312451</v>
+      </c>
+      <c r="AJ46">
+        <v>0.777185566358296</v>
+      </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:36">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5891,8 +6158,14 @@
       <c r="AH47">
         <v>28.2495976266528</v>
       </c>
+      <c r="AI47">
+        <v>26.0590526042599</v>
+      </c>
+      <c r="AJ47">
+        <v>24.147488643438</v>
+      </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:36">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5995,8 +6268,14 @@
       <c r="AH48">
         <v>0.0050636552667869</v>
       </c>
+      <c r="AI48">
+        <v>0.00505934790432026</v>
+      </c>
+      <c r="AJ48">
+        <v>0.00513498568367851</v>
+      </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:36">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6099,8 +6378,14 @@
       <c r="AH49">
         <v>0.20052042362153</v>
       </c>
+      <c r="AI49">
+        <v>0.163761663598892</v>
+      </c>
+      <c r="AJ49">
+        <v>0.16108135762256</v>
+      </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6203,8 +6488,11 @@
       <c r="AH50">
         <v>0</v>
       </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:36">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6307,8 +6595,14 @@
       <c r="AH51">
         <v>0.155085384372323</v>
       </c>
+      <c r="AI51">
+        <v>0.141218782793098</v>
+      </c>
+      <c r="AJ51">
+        <v>0.134068964988899</v>
+      </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:36">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6411,8 +6705,14 @@
       <c r="AH52">
         <v>0.0796675142968728</v>
       </c>
+      <c r="AI52">
+        <v>0.0799278753401152</v>
+      </c>
+      <c r="AJ52">
+        <v>0.0805840216163557</v>
+      </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:36">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6515,8 +6815,14 @@
       <c r="AH53">
         <v>0.00774092141440532</v>
       </c>
+      <c r="AI53">
+        <v>0.0314122063121025</v>
+      </c>
+      <c r="AJ53">
+        <v>0.0322645336967096</v>
+      </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:36">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6619,8 +6925,14 @@
       <c r="AH54">
         <v>0.113679720648593</v>
       </c>
+      <c r="AI54">
+        <v>0.0966268374990892</v>
+      </c>
+      <c r="AJ54">
+        <v>0.127559302164277</v>
+      </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:36">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6723,8 +7035,14 @@
       <c r="AH55">
         <v>30.1379231853121</v>
       </c>
+      <c r="AI55">
+        <v>29.2802772180718</v>
+      </c>
+      <c r="AJ55">
+        <v>29.6508442371877</v>
+      </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:36">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6827,8 +7145,14 @@
       <c r="AH56">
         <v>0.00511210910633613</v>
       </c>
+      <c r="AI56">
+        <v>0.00427355797775848</v>
+      </c>
+      <c r="AJ56">
+        <v>0.00434373884399915</v>
+      </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:36">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6931,8 +7255,14 @@
       <c r="AH57">
         <v>0.0359001525609726</v>
       </c>
+      <c r="AI57">
+        <v>0.0353427118109287</v>
+      </c>
+      <c r="AJ57">
+        <v>0.0174173214582986</v>
+      </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:36">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7035,8 +7365,14 @@
       <c r="AH58">
         <v>0.712640006657606</v>
       </c>
+      <c r="AI58">
+        <v>1.16644496776256</v>
+      </c>
+      <c r="AJ58">
+        <v>2.63266446739206</v>
+      </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:36">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7139,8 +7475,14 @@
       <c r="AH59">
         <v>0</v>
       </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:36">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7243,8 +7585,14 @@
       <c r="AH60">
         <v>0.424510463138528</v>
       </c>
+      <c r="AI60">
+        <v>0.352997906445542</v>
+      </c>
+      <c r="AJ60">
+        <v>0.398240579136019</v>
+      </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:36">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7347,8 +7695,14 @@
       <c r="AH61">
         <v>0.00522501011092806</v>
       </c>
+      <c r="AI61">
+        <v>0.00227368215739948</v>
+      </c>
+      <c r="AJ61">
+        <v>0.00230770369949409</v>
+      </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:36">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7451,8 +7805,14 @@
       <c r="AH62">
         <v>1.07527612455328</v>
       </c>
+      <c r="AI62">
+        <v>1.29560636469745</v>
+      </c>
+      <c r="AJ62">
+        <v>1.52936020376861</v>
+      </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:36">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7555,8 +7915,14 @@
       <c r="AH63">
         <v>0.038958659343121</v>
       </c>
+      <c r="AI63">
+        <v>0.0391347826401629</v>
+      </c>
+      <c r="AJ63">
+        <v>0.0391243035973552</v>
+      </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:36">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7659,8 +8025,14 @@
       <c r="AH64">
         <v>2.40158678439545</v>
       </c>
+      <c r="AI64">
+        <v>2.94697893648549</v>
+      </c>
+      <c r="AJ64">
+        <v>3.05199101143087</v>
+      </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:36">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7763,8 +8135,14 @@
       <c r="AH65">
         <v>0.0757256892095119</v>
       </c>
+      <c r="AI65">
+        <v>0.078270498106938</v>
+      </c>
+      <c r="AJ65">
+        <v>0.0728024912290589</v>
+      </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:36">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7867,8 +8245,14 @@
       <c r="AH66">
         <v>0.71608303865983</v>
       </c>
+      <c r="AI66">
+        <v>0.633020626115536</v>
+      </c>
+      <c r="AJ66">
+        <v>0.63846034805674</v>
+      </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:36">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7971,8 +8355,14 @@
       <c r="AH67">
         <v>0.351311319184403</v>
       </c>
+      <c r="AI67">
+        <v>0.354490644376833</v>
+      </c>
+      <c r="AJ67">
+        <v>0.316066841980216</v>
+      </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:36">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8075,8 +8465,14 @@
       <c r="AH68">
         <v>0.00291801741271889</v>
       </c>
+      <c r="AI68">
+        <v>0.00286506520667032</v>
+      </c>
+      <c r="AJ68">
+        <v>0.00284568262704008</v>
+      </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:36">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8179,8 +8575,14 @@
       <c r="AH69">
         <v>0.00520430992073402</v>
       </c>
+      <c r="AI69">
+        <v>0.00525677149589919</v>
+      </c>
+      <c r="AJ69">
+        <v>0.00537619068888369</v>
+      </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:36">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8283,8 +8685,14 @@
       <c r="AH70">
         <v>0.0111308037366584</v>
       </c>
+      <c r="AI70">
+        <v>0.0116408195559264</v>
+      </c>
+      <c r="AJ70">
+        <v>0.0119220093180858</v>
+      </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:36">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8387,8 +8795,14 @@
       <c r="AH71">
         <v>0.00281752146495867</v>
       </c>
+      <c r="AI71">
+        <v>0.00219854134345091</v>
+      </c>
+      <c r="AJ71">
+        <v>0.0020239150542083</v>
+      </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:36">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8491,8 +8905,14 @@
       <c r="AH72">
         <v>1.234344031902</v>
       </c>
+      <c r="AI72">
+        <v>1.13037458437072</v>
+      </c>
+      <c r="AJ72">
+        <v>1.31992440492594</v>
+      </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:36">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8595,8 +9015,14 @@
       <c r="AH73">
         <v>0.645478435650509</v>
       </c>
+      <c r="AI73">
+        <v>0.542053354046116</v>
+      </c>
+      <c r="AJ73">
+        <v>0.557087620521072</v>
+      </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:36">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8699,8 +9125,14 @@
       <c r="AH74">
         <v>0.038506689139018</v>
       </c>
+      <c r="AI74">
+        <v>0.0474648929181644</v>
+      </c>
+      <c r="AJ74">
+        <v>0.050153298473479</v>
+      </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:36">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8803,8 +9235,14 @@
       <c r="AH75">
         <v>0.495045687925438</v>
       </c>
+      <c r="AI75">
+        <v>0.338603227961022</v>
+      </c>
+      <c r="AJ75">
+        <v>0.338546307770549</v>
+      </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:36">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8907,8 +9345,14 @@
       <c r="AH76">
         <v>0.235180754336152</v>
       </c>
+      <c r="AI76">
+        <v>0.227825501471706</v>
+      </c>
+      <c r="AJ76">
+        <v>0.225528759792169</v>
+      </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:36">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9011,8 +9455,14 @@
       <c r="AH77">
         <v>0.0205887226668307</v>
       </c>
+      <c r="AI77">
+        <v>0.0229331933973164</v>
+      </c>
+      <c r="AJ77">
+        <v>0.0231267164684173</v>
+      </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:36">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9115,8 +9565,14 @@
       <c r="AH78">
         <v>0.180091996284077</v>
       </c>
+      <c r="AI78">
+        <v>0.167177379291839</v>
+      </c>
+      <c r="AJ78">
+        <v>0.1752015046048</v>
+      </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:36">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9219,8 +9675,14 @@
       <c r="AH79">
         <v>0.669619230251543</v>
       </c>
+      <c r="AI79">
+        <v>0.557094753486491</v>
+      </c>
+      <c r="AJ79">
+        <v>0.646483124062414</v>
+      </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:36">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9323,8 +9785,14 @@
       <c r="AH80">
         <v>0.0386849091655928</v>
       </c>
+      <c r="AI80">
+        <v>0.0405032465951683</v>
+      </c>
+      <c r="AJ80">
+        <v>0.0442082500002349</v>
+      </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:36">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9427,8 +9895,14 @@
       <c r="AH81">
         <v>0.169507691068109</v>
       </c>
+      <c r="AI81">
+        <v>0.147445819465661</v>
+      </c>
+      <c r="AJ81">
+        <v>0.132217449191749</v>
+      </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:36">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9531,8 +10005,14 @@
       <c r="AH82">
         <v>0.00880465126233581</v>
       </c>
+      <c r="AI82">
+        <v>0.0089356500168814</v>
+      </c>
+      <c r="AJ82">
+        <v>0.00892108640954426</v>
+      </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:36">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9635,8 +10115,14 @@
       <c r="AH83">
         <v>0.0347826041806432</v>
       </c>
+      <c r="AI83">
+        <v>0.0200431080880729</v>
+      </c>
+      <c r="AJ83">
+        <v>0.0182722994295589</v>
+      </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:36">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9739,8 +10225,14 @@
       <c r="AH84">
         <v>0.353791106896014</v>
       </c>
+      <c r="AI84">
+        <v>0.270581379524255</v>
+      </c>
+      <c r="AJ84">
+        <v>0.301262666381069</v>
+      </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:36">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9843,8 +10335,14 @@
       <c r="AH85">
         <v>5.40268027533346</v>
       </c>
+      <c r="AI85">
+        <v>4.46037555032319</v>
+      </c>
+      <c r="AJ85">
+        <v>5.18771435894867</v>
+      </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:36">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9947,8 +10445,14 @@
       <c r="AH86">
         <v>4.6988025004512</v>
       </c>
+      <c r="AI86">
+        <v>4.47096812065895</v>
+      </c>
+      <c r="AJ86">
+        <v>3.69868504909945</v>
+      </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:36">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10051,8 +10555,14 @@
       <c r="AH87">
         <v>2.08607701990742</v>
       </c>
+      <c r="AI87">
+        <v>1.87045896988536</v>
+      </c>
+      <c r="AJ87">
+        <v>2.04561252865617</v>
+      </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:36">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10155,8 +10665,14 @@
       <c r="AH88">
         <v>4.79896755658907</v>
       </c>
+      <c r="AI88">
+        <v>4.44581035915813</v>
+      </c>
+      <c r="AJ88">
+        <v>4.24454725076809</v>
+      </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:36">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10259,8 +10775,14 @@
       <c r="AH89">
         <v>0.401045086183306</v>
       </c>
+      <c r="AI89">
+        <v>0.310522053566206</v>
+      </c>
+      <c r="AJ89">
+        <v>0.453003534639012</v>
+      </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:36">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10363,8 +10885,14 @@
       <c r="AH90">
         <v>5.69040456460664</v>
       </c>
+      <c r="AI90">
+        <v>5.305804815277</v>
+      </c>
+      <c r="AJ90">
+        <v>5.52810420331671</v>
+      </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:36">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10467,8 +10995,14 @@
       <c r="AH91">
         <v>3.569573377477</v>
       </c>
+      <c r="AI91">
+        <v>3.40465438380934</v>
+      </c>
+      <c r="AJ91">
+        <v>3.73768762122478</v>
+      </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:36">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10571,8 +11105,14 @@
       <c r="AH92">
         <v>0.98813400252962</v>
       </c>
+      <c r="AI92">
+        <v>0.982220051706521</v>
+      </c>
+      <c r="AJ92">
+        <v>1.01362740184044</v>
+      </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:36">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10675,8 +11215,14 @@
       <c r="AH93">
         <v>0.78184331485439</v>
       </c>
+      <c r="AI93">
+        <v>1.00337494802945</v>
+      </c>
+      <c r="AJ93">
+        <v>0.927939909903276</v>
+      </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:36">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10779,8 +11325,14 @@
       <c r="AH94">
         <v>0.35604155319035</v>
       </c>
+      <c r="AI94">
+        <v>0.561574656491052</v>
+      </c>
+      <c r="AJ94">
+        <v>0.402496105221651</v>
+      </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:36">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10883,8 +11435,14 @@
       <c r="AH95">
         <v>0.511648943228108</v>
       </c>
+      <c r="AI95">
+        <v>0.271567671413832</v>
+      </c>
+      <c r="AJ95">
+        <v>0.420651939533185</v>
+      </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:36">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10987,8 +11545,14 @@
       <c r="AH96">
         <v>0.00575251488156581</v>
       </c>
+      <c r="AI96">
+        <v>0.00790191435798564</v>
+      </c>
+      <c r="AJ96">
+        <v>0.0625781654516237</v>
+      </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:36">
       <c r="A97">
         <v>96</v>
       </c>
@@ -11091,8 +11655,14 @@
       <c r="AH97">
         <v>0.470026621587741</v>
       </c>
+      <c r="AI97">
+        <v>0.760541845530406</v>
+      </c>
+      <c r="AJ97">
+        <v>0.859935465123916</v>
+      </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:36">
       <c r="A98">
         <v>97</v>
       </c>
@@ -11195,8 +11765,14 @@
       <c r="AH98">
         <v>0</v>
       </c>
+      <c r="AI98">
+        <v>8.35099467076361e-10</v>
+      </c>
+      <c r="AJ98">
+        <v>8.57581946183927e-10</v>
+      </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:36">
       <c r="A99">
         <v>98</v>
       </c>
@@ -11299,8 +11875,14 @@
       <c r="AH99">
         <v>0.108934740937432</v>
       </c>
+      <c r="AI99">
+        <v>0.115821151971724</v>
+      </c>
+      <c r="AJ99">
+        <v>0.108614438247626</v>
+      </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:36">
       <c r="A100">
         <v>99</v>
       </c>
@@ -11403,8 +11985,14 @@
       <c r="AH100">
         <v>1.43888244818861</v>
       </c>
+      <c r="AI100">
+        <v>1.25483667158556</v>
+      </c>
+      <c r="AJ100">
+        <v>1.12055290336334</v>
+      </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:36">
       <c r="A101">
         <v>100</v>
       </c>
@@ -11507,8 +12095,14 @@
       <c r="AH101">
         <v>0.001608731756394</v>
       </c>
+      <c r="AI101">
+        <v>0.00207239804597091</v>
+      </c>
+      <c r="AJ101">
+        <v>0.00157311052406992</v>
+      </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:36">
       <c r="A102">
         <v>101</v>
       </c>
@@ -11611,8 +12205,14 @@
       <c r="AH102">
         <v>0.115624979051713</v>
       </c>
+      <c r="AI102">
+        <v>0.0621144146293897</v>
+      </c>
+      <c r="AJ102">
+        <v>0.0353799935628627</v>
+      </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:36">
       <c r="A103">
         <v>102</v>
       </c>
@@ -11715,8 +12315,14 @@
       <c r="AH103">
         <v>0.0901610670741873</v>
       </c>
+      <c r="AI103">
+        <v>0.0849219131417654</v>
+      </c>
+      <c r="AJ103">
+        <v>0.0832473926178888</v>
+      </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:36">
       <c r="A104">
         <v>103</v>
       </c>
@@ -11819,8 +12425,14 @@
       <c r="AH104">
         <v>0.0444993149375798</v>
       </c>
+      <c r="AI104">
+        <v>0.0383367596326264</v>
+      </c>
+      <c r="AJ104">
+        <v>0.0529599670768644</v>
+      </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:36">
       <c r="A105">
         <v>104</v>
       </c>
@@ -11923,8 +12535,14 @@
       <c r="AH105">
         <v>0.00268515821923777</v>
       </c>
+      <c r="AI105">
+        <v>0.00279706935768382</v>
+      </c>
+      <c r="AJ105">
+        <v>0.0236381811883419</v>
+      </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:36">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12027,8 +12645,14 @@
       <c r="AH106">
         <v>0.875015856474631</v>
       </c>
+      <c r="AI106">
+        <v>0.94740149158326</v>
+      </c>
+      <c r="AJ106">
+        <v>0.970720018304818</v>
+      </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:36">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12131,8 +12755,14 @@
       <c r="AH107">
         <v>-0.00205558542921606</v>
       </c>
+      <c r="AI107">
+        <v>-0.00206066715294056</v>
+      </c>
+      <c r="AJ107">
+        <v>-0.00204783158095735</v>
+      </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:36">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12235,8 +12865,14 @@
       <c r="AH108">
         <v>0.428106580928038</v>
       </c>
+      <c r="AI108">
+        <v>0.422096068192409</v>
+      </c>
+      <c r="AJ108">
+        <v>0.420854674713327</v>
+      </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:36">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12339,8 +12975,14 @@
       <c r="AH109">
         <v>0.324079830026219</v>
       </c>
+      <c r="AI109">
+        <v>0.322864405466906</v>
+      </c>
+      <c r="AJ109">
+        <v>0.335791668550339</v>
+      </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:36">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12443,8 +13085,14 @@
       <c r="AH110">
         <v>0.0168620539020692</v>
       </c>
+      <c r="AI110">
+        <v>0.0166306059116499</v>
+      </c>
+      <c r="AJ110">
+        <v>0.0189117694300767</v>
+      </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:36">
       <c r="A111">
         <v>110</v>
       </c>
@@ -12547,8 +13195,14 @@
       <c r="AH111">
         <v>0.0341982878168447</v>
       </c>
+      <c r="AI111">
+        <v>0.0604324529515367</v>
+      </c>
+      <c r="AJ111">
+        <v>0.0559080253874221</v>
+      </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:36">
       <c r="A112">
         <v>111</v>
       </c>
@@ -12651,8 +13305,14 @@
       <c r="AH112">
         <v>0.00858081114625291</v>
       </c>
+      <c r="AI112">
+        <v>0.00948572112079951</v>
+      </c>
+      <c r="AJ112">
+        <v>0.00940043116217892</v>
+      </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:36">
       <c r="A113">
         <v>112</v>
       </c>
@@ -12755,8 +13415,14 @@
       <c r="AH113">
         <v>-0.000304260237789711</v>
       </c>
+      <c r="AI113">
+        <v>-0.000186737829383015</v>
+      </c>
+      <c r="AJ113">
+        <v>0.00416070413414702</v>
+      </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:36">
       <c r="A114">
         <v>113</v>
       </c>
@@ -12859,8 +13525,14 @@
       <c r="AH114">
         <v>0.0441039652383664</v>
       </c>
+      <c r="AI114">
+        <v>0.0437731558516272</v>
+      </c>
+      <c r="AJ114">
+        <v>0.0483047450107199</v>
+      </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:36">
       <c r="A115">
         <v>114</v>
       </c>
@@ -12963,8 +13635,14 @@
       <c r="AH115">
         <v>0.000728597801198284</v>
       </c>
+      <c r="AI115">
+        <v>0.000732923512943578</v>
+      </c>
+      <c r="AJ115">
+        <v>0.000746908532836016</v>
+      </c>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:36">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13067,8 +13745,14 @@
       <c r="AH116">
         <v>0.00213548963043513</v>
       </c>
+      <c r="AI116">
+        <v>0.00191013728747568</v>
+      </c>
+      <c r="AJ116">
+        <v>0.00194104009581983</v>
+      </c>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:36">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13171,8 +13855,14 @@
       <c r="AH117">
         <v>0.0485920033093241</v>
       </c>
+      <c r="AI117">
+        <v>0.0403196966715562</v>
+      </c>
+      <c r="AJ117">
+        <v>0.0407129447911163</v>
+      </c>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:36">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13275,8 +13965,14 @@
       <c r="AH118">
         <v>0.0776343082051172</v>
       </c>
+      <c r="AI118">
+        <v>0.0969176225595341</v>
+      </c>
+      <c r="AJ118">
+        <v>0.102558225183587</v>
+      </c>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:36">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13379,8 +14075,14 @@
       <c r="AH119">
         <v>0.125460612391568</v>
       </c>
+      <c r="AI119">
+        <v>0.133465550048853</v>
+      </c>
+      <c r="AJ119">
+        <v>0.157763013676524</v>
+      </c>
     </row>
-    <row r="120" spans="1:34">
+    <row r="120" spans="1:36">
       <c r="A120">
         <v>119</v>
       </c>
@@ -13483,8 +14185,14 @@
       <c r="AH120">
         <v>4.86294992193097</v>
       </c>
+      <c r="AI120">
+        <v>5.16615544594264</v>
+      </c>
+      <c r="AJ120">
+        <v>5.56539049085183</v>
+      </c>
     </row>
-    <row r="121" spans="1:34">
+    <row r="121" spans="1:36">
       <c r="A121">
         <v>120</v>
       </c>
@@ -13587,8 +14295,14 @@
       <c r="AH121">
         <v>0.0398539021807039</v>
       </c>
+      <c r="AI121">
+        <v>0.0408863577842884</v>
+      </c>
+      <c r="AJ121">
+        <v>0.0527030190787234</v>
+      </c>
     </row>
-    <row r="122" spans="1:34">
+    <row r="122" spans="1:36">
       <c r="A122">
         <v>121</v>
       </c>
@@ -13691,8 +14405,14 @@
       <c r="AH122">
         <v>0.00232540667758263</v>
       </c>
+      <c r="AI122">
+        <v>-5.05512643372407e-6</v>
+      </c>
+      <c r="AJ122">
+        <v>0.000444090613672936</v>
+      </c>
     </row>
-    <row r="123" spans="1:34">
+    <row r="123" spans="1:36">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13795,8 +14515,14 @@
       <c r="AH123">
         <v>0.0253589152612272</v>
       </c>
+      <c r="AI123">
+        <v>0.0255508248159865</v>
+      </c>
+      <c r="AJ123">
+        <v>0.0258942800741416</v>
+      </c>
     </row>
-    <row r="124" spans="1:34">
+    <row r="124" spans="1:36">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13899,8 +14625,14 @@
       <c r="AH124">
         <v>0.0805517857552811</v>
       </c>
+      <c r="AI124">
+        <v>0.0775182081762475</v>
+      </c>
+      <c r="AJ124">
+        <v>0.0772750644563614</v>
+      </c>
     </row>
-    <row r="125" spans="1:34">
+    <row r="125" spans="1:36">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14003,8 +14735,14 @@
       <c r="AH125">
         <v>0.0512352100470603</v>
       </c>
+      <c r="AI125">
+        <v>0.0529346704113246</v>
+      </c>
+      <c r="AJ125">
+        <v>0.0508638793087397</v>
+      </c>
     </row>
-    <row r="126" spans="1:34">
+    <row r="126" spans="1:36">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14107,8 +14845,14 @@
       <c r="AH126">
         <v>0.00306055725420035</v>
       </c>
+      <c r="AI126">
+        <v>0.0029645736705487</v>
+      </c>
+      <c r="AJ126">
+        <v>0.00296377985159475</v>
+      </c>
     </row>
-    <row r="127" spans="1:34">
+    <row r="127" spans="1:36">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14211,8 +14955,14 @@
       <c r="AH127">
         <v>0.0868213823139316</v>
       </c>
+      <c r="AI127">
+        <v>0.0811463474002895</v>
+      </c>
+      <c r="AJ127">
+        <v>0.0679385494151594</v>
+      </c>
     </row>
-    <row r="128" spans="1:34">
+    <row r="128" spans="1:36">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14315,8 +15065,14 @@
       <c r="AH128">
         <v>0.00550128413216015</v>
       </c>
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>0.00552729538077868</v>
+      </c>
     </row>
-    <row r="129" spans="1:34">
+    <row r="129" spans="1:36">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14419,8 +15175,14 @@
       <c r="AH129">
         <v>0.00135237374996803</v>
       </c>
+      <c r="AI129">
+        <v>0.00135847752336084</v>
+      </c>
+      <c r="AJ129">
+        <v>-7.3744597582845e-10</v>
+      </c>
     </row>
-    <row r="130" spans="1:34">
+    <row r="130" spans="1:36">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14523,8 +15285,14 @@
       <c r="AH130">
         <v>0.000755518475930829</v>
       </c>
+      <c r="AI130">
+        <v>0.000786133341456571</v>
+      </c>
+      <c r="AJ130">
+        <v>0.00339220889981739</v>
+      </c>
     </row>
-    <row r="131" spans="1:34">
+    <row r="131" spans="1:36">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14627,8 +15395,14 @@
       <c r="AH131">
         <v>0</v>
       </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:34">
+    <row r="132" spans="1:36">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14731,8 +15505,14 @@
       <c r="AH132">
         <v>0.000244887876224345</v>
       </c>
+      <c r="AI132">
+        <v>0.000245993281188206</v>
+      </c>
+      <c r="AJ132">
+        <v>1.16415321826935e-18</v>
+      </c>
     </row>
-    <row r="133" spans="1:34">
+    <row r="133" spans="1:36">
       <c r="A133">
         <v>132</v>
       </c>
@@ -14835,8 +15615,14 @@
       <c r="AH133">
         <v>0.000272726573496708</v>
       </c>
+      <c r="AI133">
+        <v>0.000330081091509903</v>
+      </c>
+      <c r="AJ133">
+        <v>0.000335008547944285</v>
+      </c>
     </row>
-    <row r="134" spans="1:34">
+    <row r="134" spans="1:36">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14939,8 +15725,14 @@
       <c r="AH134">
         <v>0</v>
       </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:34">
+    <row r="135" spans="1:36">
       <c r="A135">
         <v>134</v>
       </c>
@@ -15043,8 +15835,14 @@
       <c r="AH135">
         <v>0.000926734475843037</v>
       </c>
+      <c r="AI135">
+        <v>0.000930924033033142</v>
+      </c>
+      <c r="AJ135">
+        <v>0.00093067476105537</v>
+      </c>
     </row>
-    <row r="136" spans="1:34">
+    <row r="136" spans="1:36">
       <c r="A136">
         <v>135</v>
       </c>
@@ -15147,8 +15945,14 @@
       <c r="AH136">
         <v>0</v>
       </c>
+      <c r="AI136">
+        <v>1.87311491370201e-18</v>
+      </c>
+      <c r="AJ136">
+        <v>2.03726813197136e-18</v>
+      </c>
     </row>
-    <row r="137" spans="1:34">
+    <row r="137" spans="1:36">
       <c r="A137">
         <v>136</v>
       </c>
@@ -15251,8 +16055,14 @@
       <c r="AH137">
         <v>3.67672337970244</v>
       </c>
+      <c r="AI137">
+        <v>3.89700194017583</v>
+      </c>
+      <c r="AJ137">
+        <v>4.34902651974126</v>
+      </c>
     </row>
-    <row r="138" spans="1:34">
+    <row r="138" spans="1:36">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15355,8 +16165,14 @@
       <c r="AH138">
         <v>1.00044416425446e-18</v>
       </c>
+      <c r="AI138">
+        <v>2.3283064365387e-18</v>
+      </c>
+      <c r="AJ138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:34">
+    <row r="139" spans="1:36">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15459,8 +16275,14 @@
       <c r="AH139">
         <v>0</v>
       </c>
+      <c r="AI139">
+        <v>1e-18</v>
+      </c>
+      <c r="AJ139">
+        <v>1.16415321826935e-18</v>
+      </c>
     </row>
-    <row r="140" spans="1:34">
+    <row r="140" spans="1:36">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15563,8 +16385,14 @@
       <c r="AH140">
         <v>0.0012172415457448</v>
       </c>
+      <c r="AI140">
+        <v>0.00122273608009101</v>
+      </c>
+      <c r="AJ140">
+        <v>1.16415321826935e-18</v>
+      </c>
     </row>
-    <row r="141" spans="1:34">
+    <row r="141" spans="1:36">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15667,8 +16495,14 @@
       <c r="AH141">
         <v>0.135514779672916</v>
       </c>
+      <c r="AI141">
+        <v>0.138038350943555</v>
+      </c>
+      <c r="AJ141">
+        <v>0.132867796906552</v>
+      </c>
     </row>
-    <row r="142" spans="1:34">
+    <row r="142" spans="1:36">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15771,8 +16605,14 @@
       <c r="AH142">
         <v>0.0526254006087257</v>
       </c>
+      <c r="AI142">
+        <v>0.0492585315710048</v>
+      </c>
+      <c r="AJ142">
+        <v>0.0486944881332489</v>
+      </c>
     </row>
-    <row r="143" spans="1:34">
+    <row r="143" spans="1:36">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15875,8 +16715,14 @@
       <c r="AH143">
         <v>0.0518833072780784</v>
       </c>
+      <c r="AI143">
+        <v>0.00756848750722446</v>
+      </c>
+      <c r="AJ143">
+        <v>0.0195041902928283</v>
+      </c>
     </row>
-    <row r="144" spans="1:34">
+    <row r="144" spans="1:36">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15979,8 +16825,14 @@
       <c r="AH144">
         <v>0.467315931818498</v>
       </c>
+      <c r="AI144">
+        <v>0.51181398411496</v>
+      </c>
+      <c r="AJ144">
+        <v>0.556934572604023</v>
+      </c>
     </row>
-    <row r="145" spans="1:34">
+    <row r="145" spans="1:36">
       <c r="A145">
         <v>144</v>
       </c>
@@ -16083,8 +16935,14 @@
       <c r="AH145">
         <v>0.0873791904176398</v>
       </c>
+      <c r="AI145">
+        <v>0.0817884609169943</v>
+      </c>
+      <c r="AJ145">
+        <v>0.0712819602004053</v>
+      </c>
     </row>
-    <row r="146" spans="1:34">
+    <row r="146" spans="1:36">
       <c r="A146">
         <v>145</v>
       </c>
@@ -16187,8 +17045,14 @@
       <c r="AH146">
         <v>0.0559830850733149</v>
       </c>
+      <c r="AI146">
+        <v>0.0566869851788451</v>
+      </c>
+      <c r="AJ146">
+        <v>0.0590317023646637</v>
+      </c>
     </row>
-    <row r="147" spans="1:34">
+    <row r="147" spans="1:36">
       <c r="A147">
         <v>146</v>
       </c>
@@ -16291,8 +17155,14 @@
       <c r="AH147">
         <v>0</v>
       </c>
+      <c r="AI147">
+        <v>1.01863406598568e-18</v>
+      </c>
+      <c r="AJ147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:34">
+    <row r="148" spans="1:36">
       <c r="A148">
         <v>147</v>
       </c>
@@ -16395,8 +17265,14 @@
       <c r="AH148">
         <v>0.951262629946343</v>
       </c>
+      <c r="AI148">
+        <v>1.22155724357501</v>
+      </c>
+      <c r="AJ148">
+        <v>1.22383455197382</v>
+      </c>
     </row>
-    <row r="149" spans="1:34">
+    <row r="149" spans="1:36">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16499,8 +17375,14 @@
       <c r="AH149">
         <v>0.262191503685297</v>
       </c>
+      <c r="AI149">
+        <v>0.243517510071174</v>
+      </c>
+      <c r="AJ149">
+        <v>0.274381150215834</v>
+      </c>
     </row>
-    <row r="150" spans="1:34">
+    <row r="150" spans="1:36">
       <c r="A150">
         <v>149</v>
       </c>
@@ -16603,8 +17485,14 @@
       <c r="AH150">
         <v>1.00224619788067</v>
       </c>
+      <c r="AI150">
+        <v>0.889726160353934</v>
+      </c>
+      <c r="AJ150">
+        <v>0.975558915435977</v>
+      </c>
     </row>
-    <row r="151" spans="1:34">
+    <row r="151" spans="1:36">
       <c r="A151">
         <v>150</v>
       </c>
@@ -16707,8 +17595,14 @@
       <c r="AH151">
         <v>1.78849023964859</v>
       </c>
+      <c r="AI151">
+        <v>2.07924732859827</v>
+      </c>
+      <c r="AJ151">
+        <v>2.34245326236141</v>
+      </c>
     </row>
-    <row r="152" spans="1:34">
+    <row r="152" spans="1:36">
       <c r="A152">
         <v>151</v>
       </c>
@@ -16811,8 +17705,14 @@
       <c r="AH152">
         <v>1.87306828265943</v>
       </c>
+      <c r="AI152">
+        <v>1.70012916530963</v>
+      </c>
+      <c r="AJ152">
+        <v>2.03759153691174</v>
+      </c>
     </row>
-    <row r="153" spans="1:34">
+    <row r="153" spans="1:36">
       <c r="A153">
         <v>152</v>
       </c>
@@ -16915,8 +17815,14 @@
       <c r="AH153">
         <v>3.92240991837252</v>
       </c>
+      <c r="AI153">
+        <v>3.42654176574041</v>
+      </c>
+      <c r="AJ153">
+        <v>3.03423414975619</v>
+      </c>
     </row>
-    <row r="154" spans="1:34">
+    <row r="154" spans="1:36">
       <c r="A154">
         <v>153</v>
       </c>
@@ -17019,8 +17925,14 @@
       <c r="AH154">
         <v>0.00535748172262752</v>
       </c>
+      <c r="AI154">
+        <v>0.00531755490069874</v>
+      </c>
+      <c r="AJ154">
+        <v>0.0054912345029348</v>
+      </c>
     </row>
-    <row r="155" spans="1:34">
+    <row r="155" spans="1:36">
       <c r="A155">
         <v>154</v>
       </c>
@@ -17123,8 +18035,14 @@
       <c r="AH155">
         <v>12.0723790709732</v>
       </c>
+      <c r="AI155">
+        <v>10.8617485420046</v>
+      </c>
+      <c r="AJ155">
+        <v>11.381165571103</v>
+      </c>
     </row>
-    <row r="156" spans="1:34">
+    <row r="156" spans="1:36">
       <c r="A156">
         <v>155</v>
       </c>
@@ -17227,8 +18145,14 @@
       <c r="AH156">
         <v>0.00159878153601004</v>
       </c>
+      <c r="AI156">
+        <v>0.00169300607555919</v>
+      </c>
+      <c r="AJ156">
+        <v>0.0017420007867987</v>
+      </c>
     </row>
-    <row r="157" spans="1:34">
+    <row r="157" spans="1:36">
       <c r="A157">
         <v>156</v>
       </c>
@@ -17331,8 +18255,14 @@
       <c r="AH157">
         <v>0.44691122992012</v>
       </c>
+      <c r="AI157">
+        <v>0.462614586185071</v>
+      </c>
+      <c r="AJ157">
+        <v>0.553041168671992</v>
+      </c>
     </row>
-    <row r="158" spans="1:34">
+    <row r="158" spans="1:36">
       <c r="A158">
         <v>157</v>
       </c>
@@ -17435,8 +18365,14 @@
       <c r="AH158">
         <v>0.379743602304881</v>
       </c>
+      <c r="AI158">
+        <v>0.494288740621582</v>
+      </c>
+      <c r="AJ158">
+        <v>0.923350747595183</v>
+      </c>
     </row>
-    <row r="159" spans="1:34">
+    <row r="159" spans="1:36">
       <c r="A159">
         <v>158</v>
       </c>
@@ -17539,8 +18475,14 @@
       <c r="AH159">
         <v>1.83044376349489</v>
       </c>
+      <c r="AI159">
+        <v>1.65772508465875</v>
+      </c>
+      <c r="AJ159">
+        <v>1.72837986806256</v>
+      </c>
     </row>
-    <row r="160" spans="1:34">
+    <row r="160" spans="1:36">
       <c r="A160">
         <v>159</v>
       </c>
@@ -17643,8 +18585,14 @@
       <c r="AH160">
         <v>0.0163919349906468</v>
       </c>
+      <c r="AI160">
+        <v>0.0153504884454024</v>
+      </c>
+      <c r="AJ160">
+        <v>0.0156176000919467</v>
+      </c>
     </row>
-    <row r="161" spans="1:34">
+    <row r="161" spans="1:36">
       <c r="A161">
         <v>160</v>
       </c>
@@ -17747,8 +18695,14 @@
       <c r="AH161">
         <v>0.00601983212150813</v>
       </c>
+      <c r="AI161">
+        <v>0.004235967989283</v>
+      </c>
+      <c r="AJ161">
+        <v>0.00429196434495025</v>
+      </c>
     </row>
-    <row r="162" spans="1:34">
+    <row r="162" spans="1:36">
       <c r="A162">
         <v>161</v>
       </c>
@@ -17851,8 +18805,14 @@
       <c r="AH162">
         <v>0.196043706328602</v>
       </c>
+      <c r="AI162">
+        <v>0.189720900407599</v>
+      </c>
+      <c r="AJ162">
+        <v>0.17855894337229</v>
+      </c>
     </row>
-    <row r="163" spans="1:34">
+    <row r="163" spans="1:36">
       <c r="A163">
         <v>162</v>
       </c>
@@ -17955,8 +18915,14 @@
       <c r="AH163">
         <v>0.236176395908388</v>
       </c>
+      <c r="AI163">
+        <v>0.234444748403734</v>
+      </c>
+      <c r="AJ163">
+        <v>0.234499614862943</v>
+      </c>
     </row>
-    <row r="164" spans="1:34">
+    <row r="164" spans="1:36">
       <c r="A164">
         <v>163</v>
       </c>
@@ -18059,8 +19025,14 @@
       <c r="AH164">
         <v>0.0568412787756273</v>
       </c>
+      <c r="AI164">
+        <v>0.0427925661615411</v>
+      </c>
+      <c r="AJ164">
+        <v>0.0435871375215032</v>
+      </c>
     </row>
-    <row r="165" spans="1:34">
+    <row r="165" spans="1:36">
       <c r="A165">
         <v>164</v>
       </c>
@@ -18163,8 +19135,14 @@
       <c r="AH165">
         <v>0.466369011436495</v>
       </c>
+      <c r="AI165">
+        <v>0.466097353410748</v>
+      </c>
+      <c r="AJ165">
+        <v>0.383736315035648</v>
+      </c>
     </row>
-    <row r="166" spans="1:34">
+    <row r="166" spans="1:36">
       <c r="A166">
         <v>165</v>
       </c>
@@ -18267,8 +19245,14 @@
       <c r="AH166">
         <v>0.0391161549191874</v>
       </c>
+      <c r="AI166">
+        <v>0.0390690567026186</v>
+      </c>
+      <c r="AJ166">
+        <v>0.0363991577430221</v>
+      </c>
     </row>
-    <row r="167" spans="1:34">
+    <row r="167" spans="1:36">
       <c r="A167">
         <v>166</v>
       </c>
@@ -18371,8 +19355,14 @@
       <c r="AH167">
         <v>0.0506011681036455</v>
       </c>
+      <c r="AI167">
+        <v>0.0509303327492901</v>
+      </c>
+      <c r="AJ167">
+        <v>0.0478690392740698</v>
+      </c>
     </row>
-    <row r="168" spans="1:34">
+    <row r="168" spans="1:36">
       <c r="A168">
         <v>167</v>
       </c>
@@ -18475,8 +19465,14 @@
       <c r="AH168">
         <v>0.00669763159980261</v>
       </c>
+      <c r="AI168">
+        <v>0.00671175641825487</v>
+      </c>
+      <c r="AJ168">
+        <v>0.00683211009206507</v>
+      </c>
     </row>
-    <row r="169" spans="1:34">
+    <row r="169" spans="1:36">
       <c r="A169">
         <v>168</v>
       </c>
@@ -18579,8 +19575,14 @@
       <c r="AH169">
         <v>0</v>
       </c>
+      <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
+        <v>0</v>
+      </c>
     </row>
-    <row r="170" spans="1:34">
+    <row r="170" spans="1:36">
       <c r="A170">
         <v>169</v>
       </c>
@@ -18683,8 +19685,14 @@
       <c r="AH170">
         <v>0.427019530360777</v>
       </c>
+      <c r="AI170">
+        <v>0.386020347802593</v>
+      </c>
+      <c r="AJ170">
+        <v>0.426323169577386</v>
+      </c>
     </row>
-    <row r="171" spans="1:34">
+    <row r="171" spans="1:36">
       <c r="A171">
         <v>170</v>
       </c>
@@ -18787,8 +19795,14 @@
       <c r="AH171">
         <v>0.885563979019096</v>
       </c>
+      <c r="AI171">
+        <v>0.720112519208235</v>
+      </c>
+      <c r="AJ171">
+        <v>0.655796843145968</v>
+      </c>
     </row>
-    <row r="172" spans="1:34">
+    <row r="172" spans="1:36">
       <c r="A172">
         <v>171</v>
       </c>
@@ -18891,8 +19905,14 @@
       <c r="AH172">
         <v>0</v>
       </c>
+      <c r="AI172">
+        <v>0</v>
+      </c>
+      <c r="AJ172">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:34">
+    <row r="173" spans="1:36">
       <c r="A173">
         <v>172</v>
       </c>
@@ -18995,8 +20015,14 @@
       <c r="AH173">
         <v>0.0053686474896923</v>
       </c>
+      <c r="AI173">
+        <v>0.00536248199808196</v>
+      </c>
+      <c r="AJ173">
+        <v>-0.009286012892307</v>
+      </c>
     </row>
-    <row r="174" spans="2:34">
+    <row r="174" spans="2:36">
       <c r="B174">
         <v>180.214858957796</v>
       </c>
@@ -19095,6 +20121,12 @@
       </c>
       <c r="AH174">
         <v>250.163619757774</v>
+      </c>
+      <c r="AI174">
+        <v>241.556188267298</v>
+      </c>
+      <c r="AJ174">
+        <v>250.396351452753</v>
       </c>
     </row>
   </sheetData>

--- a/noah lab/TimeSeries/0905/data/A3_2.xlsx
+++ b/noah lab/TimeSeries/0905/data/A3_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -39,66 +39,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,7 +54,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +125,28 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,7 +191,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,19 +287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,79 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,31 +317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,19 +347,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,8 +427,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,8 +436,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,10 +490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,133 +502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -953,8 +953,8 @@
   <sheetPr/>
   <dimension ref="A1:AW174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AJ174"/>
+    <sheetView tabSelected="1" topLeftCell="AE149" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1108,7 +1108,7 @@
         <v>201711</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1217,8 +1217,11 @@
       <c r="AJ2">
         <v>36.4761722480401</v>
       </c>
+      <c r="AK2">
+        <v>40.6195111615877</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1327,8 +1330,11 @@
       <c r="AJ3">
         <v>7.71251507103443e-18</v>
       </c>
+      <c r="AK3">
+        <v>-2.81056600215379e-17</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1437,8 +1443,11 @@
       <c r="AJ4">
         <v>1.67919959784432</v>
       </c>
+      <c r="AK4">
+        <v>1.16610509237961</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1547,8 +1556,11 @@
       <c r="AJ5">
         <v>-0.0378363637552046</v>
       </c>
+      <c r="AK5">
+        <v>0.0160904277490323</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1657,8 +1669,11 @@
       <c r="AJ6">
         <v>0.285592840968</v>
       </c>
+      <c r="AK6">
+        <v>0.522469793968</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1767,8 +1782,11 @@
       <c r="AJ7">
         <v>0.0063062914794</v>
       </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1877,8 +1895,11 @@
       <c r="AJ8">
         <v>1.2259205301</v>
       </c>
+      <c r="AK8">
+        <v>0.9572291</v>
+      </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1987,8 +2008,11 @@
       <c r="AJ9">
         <v>0.000245663299999998</v>
       </c>
+      <c r="AK9">
+        <v>0.000245663299999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2097,8 +2121,11 @@
       <c r="AJ10">
         <v>8.68042801599638</v>
       </c>
+      <c r="AK10">
+        <v>8.3326136171295</v>
+      </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2207,8 +2234,11 @@
       <c r="AJ11">
         <v>0.0674549781965473</v>
       </c>
+      <c r="AK11">
+        <v>0.0541087833096864</v>
+      </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2317,8 +2347,11 @@
       <c r="AJ12">
         <v>0</v>
       </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2427,8 +2460,11 @@
       <c r="AJ13">
         <v>0.638067657395214</v>
       </c>
+      <c r="AK13">
+        <v>0.635823424192644</v>
+      </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:37">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2537,8 +2573,11 @@
       <c r="AJ14">
         <v>0.010786191</v>
       </c>
+      <c r="AK14">
+        <v>0.0118076225</v>
+      </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:37">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2647,8 +2686,11 @@
       <c r="AJ15">
         <v>0.0751966392546329</v>
       </c>
+      <c r="AK15">
+        <v>0.0873320576570689</v>
+      </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:37">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2757,8 +2799,11 @@
       <c r="AJ16">
         <v>0.000106807100000001</v>
       </c>
+      <c r="AK16">
+        <v>0.000106807100000013</v>
+      </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:37">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2866,6 +2911,9 @@
       </c>
       <c r="AJ17">
         <v>0.000923062311850205</v>
+      </c>
+      <c r="AK17">
+        <v>0.000757605009904725</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2975,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:37">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3084,8 +3132,11 @@
       <c r="AJ19">
         <v>1.67638070092124e-18</v>
       </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:37">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3194,8 +3245,11 @@
       <c r="AJ20">
         <v>0.000138564699999996</v>
       </c>
+      <c r="AK20">
+        <v>0.000138564699999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:37">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3304,8 +3358,11 @@
       <c r="AJ21">
         <v>2.91038304567337e-18</v>
       </c>
+      <c r="AK21">
+        <v>-2.91038304567337e-18</v>
+      </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:37">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3414,8 +3471,11 @@
       <c r="AJ22">
         <v>0.111115720681848</v>
       </c>
+      <c r="AK22">
+        <v>0.116291933547732</v>
+      </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:37">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3524,8 +3584,11 @@
       <c r="AJ23">
         <v>0.00515389670035625</v>
       </c>
+      <c r="AK23">
+        <v>0.00523439598233064</v>
+      </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:37">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3634,8 +3697,11 @@
       <c r="AJ24">
         <v>0.00113596990661877</v>
       </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:37">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3744,8 +3810,11 @@
       <c r="AJ25">
         <v>0</v>
       </c>
+      <c r="AK25">
+        <v>9.98170435195789e-19</v>
+      </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:37">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3854,8 +3923,11 @@
       <c r="AJ26">
         <v>0.0372239395</v>
       </c>
+      <c r="AK26">
+        <v>0.0284660565</v>
+      </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:37">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3964,8 +4036,11 @@
       <c r="AJ27">
         <v>8.2012389452</v>
       </c>
+      <c r="AK27">
+        <v>6.4697190281</v>
+      </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:37">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4074,8 +4149,11 @@
       <c r="AJ28">
         <v>-0.000331030040141493</v>
       </c>
+      <c r="AK28">
+        <v>-0.000327388052816242</v>
+      </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:37">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4184,8 +4262,11 @@
       <c r="AJ29">
         <v>6.8453308512147</v>
       </c>
+      <c r="AK29">
+        <v>7.0749572880423</v>
+      </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:37">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4294,8 +4375,11 @@
       <c r="AJ30">
         <v>0.481522338949462</v>
       </c>
+      <c r="AK30">
+        <v>0.526525838828147</v>
+      </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:37">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4404,8 +4488,11 @@
       <c r="AJ31">
         <v>6.00614758703667</v>
       </c>
+      <c r="AK31">
+        <v>5.51145995537599</v>
+      </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:37">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4514,8 +4601,11 @@
       <c r="AJ32">
         <v>0.0218648966690905</v>
       </c>
+      <c r="AK32">
+        <v>0.027192900237438</v>
+      </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:37">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4624,8 +4714,11 @@
       <c r="AJ33">
         <v>13.891639267794</v>
       </c>
+      <c r="AK33">
+        <v>13.2879781149865</v>
+      </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:37">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4734,8 +4827,11 @@
       <c r="AJ34">
         <v>1.4592762146457</v>
       </c>
+      <c r="AK34">
+        <v>1.24472126969996</v>
+      </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:37">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4844,8 +4940,11 @@
       <c r="AJ35">
         <v>9.46653773279273</v>
       </c>
+      <c r="AK35">
+        <v>10.6649256066551</v>
+      </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:37">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4954,8 +5053,11 @@
       <c r="AJ36">
         <v>1.83402634870736</v>
       </c>
+      <c r="AK36">
+        <v>2.17230726935619</v>
+      </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:37">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5064,8 +5166,11 @@
       <c r="AJ37">
         <v>11.8129813351793</v>
       </c>
+      <c r="AK37">
+        <v>10.3213501109405</v>
+      </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:37">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5174,8 +5279,11 @@
       <c r="AJ38">
         <v>0.0316862935217939</v>
       </c>
+      <c r="AK38">
+        <v>0.0322163116849541</v>
+      </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:37">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5284,8 +5392,11 @@
       <c r="AJ39">
         <v>0.326952051935549</v>
       </c>
+      <c r="AK39">
+        <v>0.276991148227834</v>
+      </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:37">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5394,8 +5505,11 @@
       <c r="AJ40">
         <v>0.109254584374497</v>
       </c>
+      <c r="AK40">
+        <v>0.131492500152932</v>
+      </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:37">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5504,8 +5618,11 @@
       <c r="AJ41">
         <v>1.98126452558987</v>
       </c>
+      <c r="AK41">
+        <v>2.38493997300479</v>
+      </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:37">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5614,8 +5731,11 @@
       <c r="AJ42">
         <v>0.143560223103851</v>
       </c>
+      <c r="AK42">
+        <v>0.115537136395028</v>
+      </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:37">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5724,8 +5844,11 @@
       <c r="AJ43">
         <v>4.57615100458497e-12</v>
       </c>
+      <c r="AK43">
+        <v>4.61327199445805e-12</v>
+      </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:37">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5834,8 +5957,11 @@
       <c r="AJ44">
         <v>0.929047390941584</v>
       </c>
+      <c r="AK44">
+        <v>1.02637623044679</v>
+      </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:37">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5944,8 +6070,11 @@
       <c r="AJ45">
         <v>0.00272357963320616</v>
       </c>
+      <c r="AK45">
+        <v>0.00436478940029604</v>
+      </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:37">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6054,8 +6183,11 @@
       <c r="AJ46">
         <v>0.777185566358296</v>
       </c>
+      <c r="AK46">
+        <v>0.800826946479918</v>
+      </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:37">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6164,8 +6296,11 @@
       <c r="AJ47">
         <v>24.147488643438</v>
       </c>
+      <c r="AK47">
+        <v>22.913128092055</v>
+      </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:37">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6274,8 +6409,11 @@
       <c r="AJ48">
         <v>0.00513498568367851</v>
       </c>
+      <c r="AK48">
+        <v>0.00522087874863815</v>
+      </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:37">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6383,6 +6521,9 @@
       </c>
       <c r="AJ49">
         <v>0.16108135762256</v>
+      </c>
+      <c r="AK49">
+        <v>0.165976818572662</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -6492,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:37">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6601,8 +6742,11 @@
       <c r="AJ51">
         <v>0.134068964988899</v>
       </c>
+      <c r="AK51">
+        <v>0.185075760820246</v>
+      </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:37">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6711,8 +6855,11 @@
       <c r="AJ52">
         <v>0.0805840216163557</v>
       </c>
+      <c r="AK52">
+        <v>0.0824114384904253</v>
+      </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:37">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6821,8 +6968,11 @@
       <c r="AJ53">
         <v>0.0322645336967096</v>
       </c>
+      <c r="AK53">
+        <v>0.0345869571417368</v>
+      </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:37">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6931,8 +7081,11 @@
       <c r="AJ54">
         <v>0.127559302164277</v>
       </c>
+      <c r="AK54">
+        <v>0.171163681597051</v>
+      </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:37">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7041,8 +7194,11 @@
       <c r="AJ55">
         <v>29.6508442371877</v>
       </c>
+      <c r="AK55">
+        <v>27.4021589578449</v>
+      </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:37">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7151,8 +7307,11 @@
       <c r="AJ56">
         <v>0.00434373884399915</v>
       </c>
+      <c r="AK56">
+        <v>0.00507242626624975</v>
+      </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:37">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7261,8 +7420,11 @@
       <c r="AJ57">
         <v>0.0174173214582986</v>
       </c>
+      <c r="AK57">
+        <v>0.017426428428219</v>
+      </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:37">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7371,8 +7533,11 @@
       <c r="AJ58">
         <v>2.63266446739206</v>
       </c>
+      <c r="AK58">
+        <v>2.8973930302273</v>
+      </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:37">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7481,8 +7646,11 @@
       <c r="AJ59">
         <v>0</v>
       </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:37">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7591,8 +7759,11 @@
       <c r="AJ60">
         <v>0.398240579136019</v>
       </c>
+      <c r="AK60">
+        <v>0.298590350153405</v>
+      </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:37">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7701,8 +7872,11 @@
       <c r="AJ61">
         <v>0.00230770369949409</v>
       </c>
+      <c r="AK61">
+        <v>0.00234639553343937</v>
+      </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:37">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7811,8 +7985,11 @@
       <c r="AJ62">
         <v>1.52936020376861</v>
       </c>
+      <c r="AK62">
+        <v>1.66352778535511</v>
+      </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:37">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7921,8 +8098,11 @@
       <c r="AJ63">
         <v>0.0391243035973552</v>
       </c>
+      <c r="AK63">
+        <v>0.3895669422406</v>
+      </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:37">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8031,8 +8211,11 @@
       <c r="AJ64">
         <v>3.05199101143087</v>
       </c>
+      <c r="AK64">
+        <v>4.05611503953965</v>
+      </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:37">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8141,8 +8324,11 @@
       <c r="AJ65">
         <v>0.0728024912290589</v>
       </c>
+      <c r="AK65">
+        <v>0.0710005381570599</v>
+      </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:37">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8251,8 +8437,11 @@
       <c r="AJ66">
         <v>0.63846034805674</v>
       </c>
+      <c r="AK66">
+        <v>0.626241852738216</v>
+      </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:37">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8361,8 +8550,11 @@
       <c r="AJ67">
         <v>0.316066841980216</v>
       </c>
+      <c r="AK67">
+        <v>0.320255652117226</v>
+      </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:37">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8471,8 +8663,11 @@
       <c r="AJ68">
         <v>0.00284568262704008</v>
       </c>
+      <c r="AK68">
+        <v>0.00276329493615396</v>
+      </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:37">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8581,8 +8776,11 @@
       <c r="AJ69">
         <v>0.00537619068888369</v>
       </c>
+      <c r="AK69">
+        <v>0.00581186799014939</v>
+      </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:37">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8691,8 +8889,11 @@
       <c r="AJ70">
         <v>0.0119220093180858</v>
       </c>
+      <c r="AK70">
+        <v>0.00941639435684417</v>
+      </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:37">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8801,8 +9002,11 @@
       <c r="AJ71">
         <v>0.0020239150542083</v>
       </c>
+      <c r="AK71">
+        <v>0.00184879299221937</v>
+      </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:37">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8911,8 +9115,11 @@
       <c r="AJ72">
         <v>1.31992440492594</v>
       </c>
+      <c r="AK72">
+        <v>1.72325792233818</v>
+      </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:37">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9021,8 +9228,11 @@
       <c r="AJ73">
         <v>0.557087620521072</v>
       </c>
+      <c r="AK73">
+        <v>0.629425885908782</v>
+      </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:37">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9131,8 +9341,11 @@
       <c r="AJ74">
         <v>0.050153298473479</v>
       </c>
+      <c r="AK74">
+        <v>0.0521269675353786</v>
+      </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:37">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9241,8 +9454,11 @@
       <c r="AJ75">
         <v>0.338546307770549</v>
       </c>
+      <c r="AK75">
+        <v>0.347480699047952</v>
+      </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:37">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9351,8 +9567,11 @@
       <c r="AJ76">
         <v>0.225528759792169</v>
       </c>
+      <c r="AK76">
+        <v>0.254178273535081</v>
+      </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:37">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9461,8 +9680,11 @@
       <c r="AJ77">
         <v>0.0231267164684173</v>
       </c>
+      <c r="AK77">
+        <v>0.0273274803157453</v>
+      </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:37">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9571,8 +9793,11 @@
       <c r="AJ78">
         <v>0.1752015046048</v>
       </c>
+      <c r="AK78">
+        <v>0.231569228832731</v>
+      </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:37">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9681,8 +9906,11 @@
       <c r="AJ79">
         <v>0.646483124062414</v>
       </c>
+      <c r="AK79">
+        <v>0.608955809514351</v>
+      </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:37">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9791,8 +10019,11 @@
       <c r="AJ80">
         <v>0.0442082500002349</v>
       </c>
+      <c r="AK80">
+        <v>0.0302293804708968</v>
+      </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:37">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9901,8 +10132,11 @@
       <c r="AJ81">
         <v>0.132217449191749</v>
       </c>
+      <c r="AK81">
+        <v>0.19469783412127</v>
+      </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:37">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10011,8 +10245,11 @@
       <c r="AJ82">
         <v>0.00892108640954426</v>
       </c>
+      <c r="AK82">
+        <v>0.00884410927997398</v>
+      </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:37">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10121,8 +10358,11 @@
       <c r="AJ83">
         <v>0.0182722994295589</v>
       </c>
+      <c r="AK83">
+        <v>0.0148104013320505</v>
+      </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:37">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10231,8 +10471,11 @@
       <c r="AJ84">
         <v>0.301262666381069</v>
       </c>
+      <c r="AK84">
+        <v>0.307255908984992</v>
+      </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:37">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10341,8 +10584,11 @@
       <c r="AJ85">
         <v>5.18771435894867</v>
       </c>
+      <c r="AK85">
+        <v>6.14267733451316</v>
+      </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:37">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10451,8 +10697,11 @@
       <c r="AJ86">
         <v>3.69868504909945</v>
       </c>
+      <c r="AK86">
+        <v>2.83817430196553</v>
+      </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:37">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10561,8 +10810,11 @@
       <c r="AJ87">
         <v>2.04561252865617</v>
       </c>
+      <c r="AK87">
+        <v>1.66813376620269</v>
+      </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:37">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10671,8 +10923,11 @@
       <c r="AJ88">
         <v>4.24454725076809</v>
       </c>
+      <c r="AK88">
+        <v>4.24217329639699</v>
+      </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:37">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10781,8 +11036,11 @@
       <c r="AJ89">
         <v>0.453003534639012</v>
       </c>
+      <c r="AK89">
+        <v>0.60778684015458</v>
+      </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:37">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10891,8 +11149,11 @@
       <c r="AJ90">
         <v>5.52810420331671</v>
       </c>
+      <c r="AK90">
+        <v>6.17854982895104</v>
+      </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:37">
       <c r="A91">
         <v>90</v>
       </c>
@@ -11001,8 +11262,11 @@
       <c r="AJ91">
         <v>3.73768762122478</v>
       </c>
+      <c r="AK91">
+        <v>4.05530752114324</v>
+      </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:37">
       <c r="A92">
         <v>91</v>
       </c>
@@ -11111,8 +11375,11 @@
       <c r="AJ92">
         <v>1.01362740184044</v>
       </c>
+      <c r="AK92">
+        <v>1.10804343569662</v>
+      </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:37">
       <c r="A93">
         <v>92</v>
       </c>
@@ -11221,8 +11488,11 @@
       <c r="AJ93">
         <v>0.927939909903276</v>
       </c>
+      <c r="AK93">
+        <v>0.723343285035484</v>
+      </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:37">
       <c r="A94">
         <v>93</v>
       </c>
@@ -11331,8 +11601,11 @@
       <c r="AJ94">
         <v>0.402496105221651</v>
       </c>
+      <c r="AK94">
+        <v>0.426880630908949</v>
+      </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:37">
       <c r="A95">
         <v>94</v>
       </c>
@@ -11441,8 +11714,11 @@
       <c r="AJ95">
         <v>0.420651939533185</v>
       </c>
+      <c r="AK95">
+        <v>0.465668465344285</v>
+      </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:37">
       <c r="A96">
         <v>95</v>
       </c>
@@ -11551,8 +11827,11 @@
       <c r="AJ96">
         <v>0.0625781654516237</v>
       </c>
+      <c r="AK96">
+        <v>-6.51925802230835e-17</v>
+      </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:37">
       <c r="A97">
         <v>96</v>
       </c>
@@ -11661,8 +11940,11 @@
       <c r="AJ97">
         <v>0.859935465123916</v>
       </c>
+      <c r="AK97">
+        <v>1.08732782602601</v>
+      </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:37">
       <c r="A98">
         <v>97</v>
       </c>
@@ -11771,8 +12053,11 @@
       <c r="AJ98">
         <v>8.57581946183927e-10</v>
       </c>
+      <c r="AK98">
+        <v>8.78105986048467e-10</v>
+      </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:37">
       <c r="A99">
         <v>98</v>
       </c>
@@ -11881,8 +12166,11 @@
       <c r="AJ99">
         <v>0.108614438247626</v>
       </c>
+      <c r="AK99">
+        <v>0.102708898480537</v>
+      </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:37">
       <c r="A100">
         <v>99</v>
       </c>
@@ -11991,8 +12279,11 @@
       <c r="AJ100">
         <v>1.12055290336334</v>
       </c>
+      <c r="AK100">
+        <v>1.43621136058283</v>
+      </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:37">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12101,8 +12392,11 @@
       <c r="AJ101">
         <v>0.00157311052406992</v>
       </c>
+      <c r="AK101">
+        <v>0.00229692313458236</v>
+      </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:37">
       <c r="A102">
         <v>101</v>
       </c>
@@ -12211,8 +12505,11 @@
       <c r="AJ102">
         <v>0.0353799935628627</v>
       </c>
+      <c r="AK102">
+        <v>0.0472087175999108</v>
+      </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:37">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12321,8 +12618,11 @@
       <c r="AJ103">
         <v>0.0832473926178888</v>
       </c>
+      <c r="AK103">
+        <v>0.080741542622784</v>
+      </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:37">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12431,8 +12731,11 @@
       <c r="AJ104">
         <v>0.0529599670768644</v>
       </c>
+      <c r="AK104">
+        <v>0.0676079866235258</v>
+      </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:37">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12541,8 +12844,11 @@
       <c r="AJ105">
         <v>0.0236381811883419</v>
       </c>
+      <c r="AK105">
+        <v>0.0134972705194332</v>
+      </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:37">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12651,8 +12957,11 @@
       <c r="AJ106">
         <v>0.970720018304818</v>
       </c>
+      <c r="AK106">
+        <v>1.15546995428775</v>
+      </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:37">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12761,8 +13070,11 @@
       <c r="AJ107">
         <v>-0.00204783158095735</v>
       </c>
+      <c r="AK107">
+        <v>-0.00203949190313303</v>
+      </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:37">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12871,8 +13183,11 @@
       <c r="AJ108">
         <v>0.420854674713327</v>
       </c>
+      <c r="AK108">
+        <v>0.253894988030609</v>
+      </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:37">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12981,8 +13296,11 @@
       <c r="AJ109">
         <v>0.335791668550339</v>
       </c>
+      <c r="AK109">
+        <v>0.348453759572214</v>
+      </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:37">
       <c r="A110">
         <v>109</v>
       </c>
@@ -13091,8 +13409,11 @@
       <c r="AJ110">
         <v>0.0189117694300767</v>
       </c>
+      <c r="AK110">
+        <v>0.0190408839041226</v>
+      </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:37">
       <c r="A111">
         <v>110</v>
       </c>
@@ -13201,8 +13522,11 @@
       <c r="AJ111">
         <v>0.0559080253874221</v>
       </c>
+      <c r="AK111">
+        <v>0.0714470405395849</v>
+      </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:37">
       <c r="A112">
         <v>111</v>
       </c>
@@ -13311,8 +13635,11 @@
       <c r="AJ112">
         <v>0.00940043116217892</v>
       </c>
+      <c r="AK112">
+        <v>0.00957826098204488</v>
+      </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:37">
       <c r="A113">
         <v>112</v>
       </c>
@@ -13421,8 +13748,11 @@
       <c r="AJ113">
         <v>0.00416070413414702</v>
       </c>
+      <c r="AK113">
+        <v>0.0107875611385871</v>
+      </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:37">
       <c r="A114">
         <v>113</v>
       </c>
@@ -13531,8 +13861,11 @@
       <c r="AJ114">
         <v>0.0483047450107199</v>
       </c>
+      <c r="AK114">
+        <v>0.0564862734984319</v>
+      </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:37">
       <c r="A115">
         <v>114</v>
       </c>
@@ -13641,8 +13974,11 @@
       <c r="AJ115">
         <v>0.000746908532836016</v>
       </c>
+      <c r="AK115">
+        <v>0.000726729718922065</v>
+      </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:37">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13751,8 +14087,11 @@
       <c r="AJ116">
         <v>0.00194104009581983</v>
       </c>
+      <c r="AK116">
+        <v>0.0019524419347877</v>
+      </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:37">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13861,8 +14200,11 @@
       <c r="AJ117">
         <v>0.0407129447911163</v>
       </c>
+      <c r="AK117">
+        <v>0.0411693090123037</v>
+      </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:37">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13971,8 +14313,11 @@
       <c r="AJ118">
         <v>0.102558225183587</v>
       </c>
+      <c r="AK118">
+        <v>0.0941302818984842</v>
+      </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:37">
       <c r="A119">
         <v>118</v>
       </c>
@@ -14081,8 +14426,11 @@
       <c r="AJ119">
         <v>0.157763013676524</v>
       </c>
+      <c r="AK119">
+        <v>0.168530269187785</v>
+      </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:37">
       <c r="A120">
         <v>119</v>
       </c>
@@ -14191,8 +14539,11 @@
       <c r="AJ120">
         <v>5.56539049085183</v>
       </c>
+      <c r="AK120">
+        <v>5.31660811421339</v>
+      </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:37">
       <c r="A121">
         <v>120</v>
       </c>
@@ -14301,8 +14652,11 @@
       <c r="AJ121">
         <v>0.0527030190787234</v>
       </c>
+      <c r="AK121">
+        <v>0.0308606486945518</v>
+      </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:37">
       <c r="A122">
         <v>121</v>
       </c>
@@ -14411,8 +14765,11 @@
       <c r="AJ122">
         <v>0.000444090613672936</v>
       </c>
+      <c r="AK122">
+        <v>-7.48567981645465e-14</v>
+      </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:37">
       <c r="A123">
         <v>122</v>
       </c>
@@ -14521,8 +14878,11 @@
       <c r="AJ123">
         <v>0.0258942800741416</v>
       </c>
+      <c r="AK123">
+        <v>0.025615234696876</v>
+      </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:37">
       <c r="A124">
         <v>123</v>
       </c>
@@ -14631,8 +14991,11 @@
       <c r="AJ124">
         <v>0.0772750644563614</v>
       </c>
+      <c r="AK124">
+        <v>0.0718294414235089</v>
+      </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:37">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14741,8 +15104,11 @@
       <c r="AJ125">
         <v>0.0508638793087397</v>
       </c>
+      <c r="AK125">
+        <v>0.0515114228170495</v>
+      </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:37">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14851,8 +15217,11 @@
       <c r="AJ126">
         <v>0.00296377985159475</v>
       </c>
+      <c r="AK126">
+        <v>0.00295236469134402</v>
+      </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:37">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14961,8 +15330,11 @@
       <c r="AJ127">
         <v>0.0679385494151594</v>
       </c>
+      <c r="AK127">
+        <v>0.064965009353216</v>
+      </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:37">
       <c r="A128">
         <v>127</v>
       </c>
@@ -15071,8 +15443,11 @@
       <c r="AJ128">
         <v>0.00552729538077868</v>
       </c>
+      <c r="AK128">
+        <v>0.00546773140690885</v>
+      </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:37">
       <c r="A129">
         <v>128</v>
       </c>
@@ -15181,8 +15556,11 @@
       <c r="AJ129">
         <v>-7.3744597582845e-10</v>
       </c>
+      <c r="AK129">
+        <v>-7.29499011358712e-10</v>
+      </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:37">
       <c r="A130">
         <v>129</v>
       </c>
@@ -15291,8 +15669,11 @@
       <c r="AJ130">
         <v>0.00339220889981739</v>
       </c>
+      <c r="AK130">
+        <v>0.00343591757046994</v>
+      </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:37">
       <c r="A131">
         <v>130</v>
       </c>
@@ -15401,8 +15782,11 @@
       <c r="AJ131">
         <v>0</v>
       </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:37">
       <c r="A132">
         <v>131</v>
       </c>
@@ -15511,8 +15895,11 @@
       <c r="AJ132">
         <v>1.16415321826935e-18</v>
       </c>
+      <c r="AK132">
+        <v>1.16415321826935e-18</v>
+      </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:37">
       <c r="A133">
         <v>132</v>
       </c>
@@ -15621,8 +16008,11 @@
       <c r="AJ133">
         <v>0.000335008547944285</v>
       </c>
+      <c r="AK133">
+        <v>0.000359225846738044</v>
+      </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:37">
       <c r="A134">
         <v>133</v>
       </c>
@@ -15731,8 +16121,11 @@
       <c r="AJ134">
         <v>0</v>
       </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:37">
       <c r="A135">
         <v>134</v>
       </c>
@@ -15841,8 +16234,11 @@
       <c r="AJ135">
         <v>0.00093067476105537</v>
       </c>
+      <c r="AK135">
+        <v>-7.27595761418343e-20</v>
+      </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:37">
       <c r="A136">
         <v>135</v>
       </c>
@@ -15951,8 +16347,11 @@
       <c r="AJ136">
         <v>2.03726813197136e-18</v>
       </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:37">
       <c r="A137">
         <v>136</v>
       </c>
@@ -16061,8 +16460,11 @@
       <c r="AJ137">
         <v>4.34902651974126</v>
       </c>
+      <c r="AK137">
+        <v>4.48544409345584</v>
+      </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:37">
       <c r="A138">
         <v>137</v>
       </c>
@@ -16171,8 +16573,11 @@
       <c r="AJ138">
         <v>0</v>
       </c>
+      <c r="AK138">
+        <v>2.3283064365387e-18</v>
+      </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:37">
       <c r="A139">
         <v>138</v>
       </c>
@@ -16281,8 +16686,11 @@
       <c r="AJ139">
         <v>1.16415321826935e-18</v>
       </c>
+      <c r="AK139">
+        <v>2e-18</v>
+      </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:37">
       <c r="A140">
         <v>139</v>
       </c>
@@ -16391,8 +16799,11 @@
       <c r="AJ140">
         <v>1.16415321826935e-18</v>
       </c>
+      <c r="AK140">
+        <v>0.0018464823108232</v>
+      </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:37">
       <c r="A141">
         <v>140</v>
       </c>
@@ -16501,8 +16912,11 @@
       <c r="AJ141">
         <v>0.132867796906552</v>
       </c>
+      <c r="AK141">
+        <v>0.133939296334799</v>
+      </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:37">
       <c r="A142">
         <v>141</v>
       </c>
@@ -16611,8 +17025,11 @@
       <c r="AJ142">
         <v>0.0486944881332489</v>
       </c>
+      <c r="AK142">
+        <v>0.0487597898781935</v>
+      </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:37">
       <c r="A143">
         <v>142</v>
       </c>
@@ -16721,8 +17138,11 @@
       <c r="AJ143">
         <v>0.0195041902928283</v>
       </c>
+      <c r="AK143">
+        <v>0.00814961201754206</v>
+      </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:37">
       <c r="A144">
         <v>143</v>
       </c>
@@ -16831,8 +17251,11 @@
       <c r="AJ144">
         <v>0.556934572604023</v>
       </c>
+      <c r="AK144">
+        <v>0.54021340126943</v>
+      </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:37">
       <c r="A145">
         <v>144</v>
       </c>
@@ -16941,8 +17364,11 @@
       <c r="AJ145">
         <v>0.0712819602004053</v>
       </c>
+      <c r="AK145">
+        <v>0.0666824643229254</v>
+      </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:37">
       <c r="A146">
         <v>145</v>
       </c>
@@ -17051,8 +17477,11 @@
       <c r="AJ146">
         <v>0.0590317023646637</v>
       </c>
+      <c r="AK146">
+        <v>0.0599412454607481</v>
+      </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:37">
       <c r="A147">
         <v>146</v>
       </c>
@@ -17161,8 +17590,11 @@
       <c r="AJ147">
         <v>0</v>
       </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:37">
       <c r="A148">
         <v>147</v>
       </c>
@@ -17271,8 +17703,11 @@
       <c r="AJ148">
         <v>1.22383455197382</v>
       </c>
+      <c r="AK148">
+        <v>1.45821277789582</v>
+      </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:37">
       <c r="A149">
         <v>148</v>
       </c>
@@ -17381,8 +17816,11 @@
       <c r="AJ149">
         <v>0.274381150215834</v>
       </c>
+      <c r="AK149">
+        <v>0.186961966257164</v>
+      </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:37">
       <c r="A150">
         <v>149</v>
       </c>
@@ -17491,8 +17929,11 @@
       <c r="AJ150">
         <v>0.975558915435977</v>
       </c>
+      <c r="AK150">
+        <v>1.01990369498777</v>
+      </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:37">
       <c r="A151">
         <v>150</v>
       </c>
@@ -17601,8 +18042,11 @@
       <c r="AJ151">
         <v>2.34245326236141</v>
       </c>
+      <c r="AK151">
+        <v>2.42601102971369</v>
+      </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:37">
       <c r="A152">
         <v>151</v>
       </c>
@@ -17711,8 +18155,11 @@
       <c r="AJ152">
         <v>2.03759153691174</v>
       </c>
+      <c r="AK152">
+        <v>2.56980220689883</v>
+      </c>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:37">
       <c r="A153">
         <v>152</v>
       </c>
@@ -17821,8 +18268,11 @@
       <c r="AJ153">
         <v>3.03423414975619</v>
       </c>
+      <c r="AK153">
+        <v>2.92531986861042</v>
+      </c>
     </row>
-    <row r="154" spans="1:36">
+    <row r="154" spans="1:37">
       <c r="A154">
         <v>153</v>
       </c>
@@ -17931,8 +18381,11 @@
       <c r="AJ154">
         <v>0.0054912345029348</v>
       </c>
+      <c r="AK154">
+        <v>0.00711551157425784</v>
+      </c>
     </row>
-    <row r="155" spans="1:36">
+    <row r="155" spans="1:37">
       <c r="A155">
         <v>154</v>
       </c>
@@ -18041,8 +18494,11 @@
       <c r="AJ155">
         <v>11.381165571103</v>
       </c>
+      <c r="AK155">
+        <v>10.8605333007654</v>
+      </c>
     </row>
-    <row r="156" spans="1:36">
+    <row r="156" spans="1:37">
       <c r="A156">
         <v>155</v>
       </c>
@@ -18151,8 +18607,11 @@
       <c r="AJ156">
         <v>0.0017420007867987</v>
       </c>
+      <c r="AK156">
+        <v>0.00174769649787117</v>
+      </c>
     </row>
-    <row r="157" spans="1:36">
+    <row r="157" spans="1:37">
       <c r="A157">
         <v>156</v>
       </c>
@@ -18261,8 +18720,11 @@
       <c r="AJ157">
         <v>0.553041168671992</v>
       </c>
+      <c r="AK157">
+        <v>0.511429106234816</v>
+      </c>
     </row>
-    <row r="158" spans="1:36">
+    <row r="158" spans="1:37">
       <c r="A158">
         <v>157</v>
       </c>
@@ -18371,8 +18833,11 @@
       <c r="AJ158">
         <v>0.923350747595183</v>
       </c>
+      <c r="AK158">
+        <v>0.57697287951408</v>
+      </c>
     </row>
-    <row r="159" spans="1:36">
+    <row r="159" spans="1:37">
       <c r="A159">
         <v>158</v>
       </c>
@@ -18481,8 +18946,11 @@
       <c r="AJ159">
         <v>1.72837986806256</v>
       </c>
+      <c r="AK159">
+        <v>3.8738961164632</v>
+      </c>
     </row>
-    <row r="160" spans="1:36">
+    <row r="160" spans="1:37">
       <c r="A160">
         <v>159</v>
       </c>
@@ -18591,8 +19059,11 @@
       <c r="AJ160">
         <v>0.0156176000919467</v>
       </c>
+      <c r="AK160">
+        <v>0.0179644075339638</v>
+      </c>
     </row>
-    <row r="161" spans="1:36">
+    <row r="161" spans="1:37">
       <c r="A161">
         <v>160</v>
       </c>
@@ -18701,8 +19172,11 @@
       <c r="AJ161">
         <v>0.00429196434495025</v>
       </c>
+      <c r="AK161">
+        <v>0.00453073936131483</v>
+      </c>
     </row>
-    <row r="162" spans="1:36">
+    <row r="162" spans="1:37">
       <c r="A162">
         <v>161</v>
       </c>
@@ -18811,8 +19285,11 @@
       <c r="AJ162">
         <v>0.17855894337229</v>
       </c>
+      <c r="AK162">
+        <v>0.180143578468257</v>
+      </c>
     </row>
-    <row r="163" spans="1:36">
+    <row r="163" spans="1:37">
       <c r="A163">
         <v>162</v>
       </c>
@@ -18921,8 +19398,11 @@
       <c r="AJ163">
         <v>0.234499614862943</v>
       </c>
+      <c r="AK163">
+        <v>0.226555266402265</v>
+      </c>
     </row>
-    <row r="164" spans="1:36">
+    <row r="164" spans="1:37">
       <c r="A164">
         <v>163</v>
       </c>
@@ -19031,8 +19511,11 @@
       <c r="AJ164">
         <v>0.0435871375215032</v>
       </c>
+      <c r="AK164">
+        <v>0.0434594684114242</v>
+      </c>
     </row>
-    <row r="165" spans="1:36">
+    <row r="165" spans="1:37">
       <c r="A165">
         <v>164</v>
       </c>
@@ -19141,8 +19624,11 @@
       <c r="AJ165">
         <v>0.383736315035648</v>
       </c>
+      <c r="AK165">
+        <v>0.341076551121174</v>
+      </c>
     </row>
-    <row r="166" spans="1:36">
+    <row r="166" spans="1:37">
       <c r="A166">
         <v>165</v>
       </c>
@@ -19251,8 +19737,11 @@
       <c r="AJ166">
         <v>0.0363991577430221</v>
       </c>
+      <c r="AK166">
+        <v>0.0372580397446719</v>
+      </c>
     </row>
-    <row r="167" spans="1:36">
+    <row r="167" spans="1:37">
       <c r="A167">
         <v>166</v>
       </c>
@@ -19361,8 +19850,11 @@
       <c r="AJ167">
         <v>0.0478690392740698</v>
       </c>
+      <c r="AK167">
+        <v>0.0618571866506174</v>
+      </c>
     </row>
-    <row r="168" spans="1:36">
+    <row r="168" spans="1:37">
       <c r="A168">
         <v>167</v>
       </c>
@@ -19471,8 +19963,11 @@
       <c r="AJ168">
         <v>0.00683211009206507</v>
       </c>
+      <c r="AK168">
+        <v>0.00742306041846618</v>
+      </c>
     </row>
-    <row r="169" spans="1:36">
+    <row r="169" spans="1:37">
       <c r="A169">
         <v>168</v>
       </c>
@@ -19581,8 +20076,11 @@
       <c r="AJ169">
         <v>0</v>
       </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
     </row>
-    <row r="170" spans="1:36">
+    <row r="170" spans="1:37">
       <c r="A170">
         <v>169</v>
       </c>
@@ -19691,8 +20189,11 @@
       <c r="AJ170">
         <v>0.426323169577386</v>
       </c>
+      <c r="AK170">
+        <v>0.365815831147617</v>
+      </c>
     </row>
-    <row r="171" spans="1:36">
+    <row r="171" spans="1:37">
       <c r="A171">
         <v>170</v>
       </c>
@@ -19801,8 +20302,11 @@
       <c r="AJ171">
         <v>0.655796843145968</v>
       </c>
+      <c r="AK171">
+        <v>0.630071946089855</v>
+      </c>
     </row>
-    <row r="172" spans="1:36">
+    <row r="172" spans="1:37">
       <c r="A172">
         <v>171</v>
       </c>
@@ -19911,8 +20415,11 @@
       <c r="AJ172">
         <v>0</v>
       </c>
+      <c r="AK172">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:36">
+    <row r="173" spans="1:37">
       <c r="A173">
         <v>172</v>
       </c>
@@ -20021,8 +20528,11 @@
       <c r="AJ173">
         <v>-0.009286012892307</v>
       </c>
+      <c r="AK173">
+        <v>-0.00944223562682431</v>
+      </c>
     </row>
-    <row r="174" spans="2:36">
+    <row r="174" spans="2:37">
       <c r="B174">
         <v>180.214858957796</v>
       </c>
@@ -20127,6 +20637,9 @@
       </c>
       <c r="AJ174">
         <v>250.396351452753</v>
+      </c>
+      <c r="AK174">
+        <v>253.336896976658</v>
       </c>
     </row>
   </sheetData>
